--- a/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 14,57</t>
+          <t>4,42; 14,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 21,62</t>
+          <t>9,94; 21,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,62</t>
+          <t>8,71; 16,6</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,54</t>
+          <t>12,66; 18,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 18,05</t>
+          <t>13,45; 18,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 17,45</t>
+          <t>13,9; 17,59</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 31,05</t>
+          <t>11,84; 30,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,03</t>
+          <t>13,74; 17,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 25,07</t>
+          <t>13,75; 24,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,17</t>
+          <t>7,52; 12,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,73</t>
+          <t>5,44; 10,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,65</t>
+          <t>7,03; 10,63</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,79</t>
+          <t>9,86; 14,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,43</t>
+          <t>10,86; 14,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 13,47</t>
+          <t>11,07; 13,59</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,24</t>
+          <t>11,56; 18,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,77; 14,16</t>
+          <t>11,73; 14,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,18; 15,52</t>
+          <t>12,23; 15,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,0</t>
+          <t>4,35; 14,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 21,42</t>
+          <t>10,27; 21,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,6</t>
+          <t>8,76; 16,62</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,66; 18,66</t>
+          <t>12,48; 18,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,45; 18,17</t>
+          <t>13,37; 18,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,9; 17,59</t>
+          <t>13,96; 17,45</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 30,66</t>
+          <t>11,79; 31,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 17,84</t>
+          <t>13,93; 18,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,75; 24,67</t>
+          <t>13,62; 25,07</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 12,09</t>
+          <t>7,7; 12,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,44; 10,89</t>
+          <t>5,48; 10,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,03; 10,63</t>
+          <t>7,02; 10,65</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,86; 14,04</t>
+          <t>9,84; 13,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 14,14</t>
+          <t>10,87; 14,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,07; 13,59</t>
+          <t>10,97; 13,47</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 18,51</t>
+          <t>11,55; 19,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,73; 14,21</t>
+          <t>11,77; 14,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>12,23; 15,92</t>
+          <t>12,18; 15,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>13,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>15,13%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>14,35%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,35; 14,57</t>
+          <t>11,04; 16,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,27; 21,62</t>
+          <t>13,07; 17,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,76; 16,62</t>
+          <t>12,8; 16,19</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>29,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,72%</t>
+          <t>15,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>23,47%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,54</t>
+          <t>11,24; 61,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,37; 18,05</t>
+          <t>13,56; 17,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,96; 17,45</t>
+          <t>13,12; 51,37</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,3%</t>
+          <t>7,88%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 31,05</t>
+          <t>7,29; 11,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,93; 18,03</t>
+          <t>3,46; 9,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>13,62; 25,07</t>
+          <t>5,14; 9,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>11,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>11,56%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>11,32%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,17</t>
+          <t>9,21; 12,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,48; 10,73</t>
+          <t>9,13; 13,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 10,65</t>
+          <t>9,98; 12,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,81%</t>
+          <t>17,62%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>14,76%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,84; 13,79</t>
+          <t>11,0; 39,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,87; 14,43</t>
+          <t>9,94; 13,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,97; 13,47</t>
+          <t>11,38; 25,12</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>13,36%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>13,09%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>13,22%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>11,55; 19,24</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>11,77; 14,16</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>12,18; 15,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57b3_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,04; 16,28</t>
+          <t>10,91; 15,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,07; 17,15</t>
+          <t>13,14; 17,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,8; 16,19</t>
+          <t>12,71; 16,1</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,24; 61,99</t>
+          <t>11,13; 61,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,56; 17,6</t>
+          <t>13,68; 17,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>13,12; 51,37</t>
+          <t>13,28; 47,89</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,29; 11,69</t>
+          <t>7,1; 11,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 9,7</t>
+          <t>3,72; 9,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,79</t>
+          <t>5,13; 9,77</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,91</t>
+          <t>9,39; 13,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,13; 13,45</t>
+          <t>9,31; 13,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,98; 12,59</t>
+          <t>9,86; 12,57</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,0; 39,13</t>
+          <t>11,01; 35,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,94; 13,29</t>
+          <t>9,96; 13,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,38; 25,12</t>
+          <t>11,32; 25,91</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con sentimiento de soledad al menos buena parte del tiempo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>85937</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>101963</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>187899</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>69323; 101178</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>88570; 117162</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>166436; 210835</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>356620</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>147631</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>504252</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>132607; 736018</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>130889; 166881</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>285405; 1029165</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>64399</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>64584</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>128983</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49936; 84085</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>34711; 90287</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>83982; 159812</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>102378</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>126312</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>228690</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>87008; 121782</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>101791; 146477</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>199213; 253829</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>783</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1243</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>609334</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>440490</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1049824</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>380783; 1222117</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>364203; 484388</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>805141; 1843337</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>